--- a/static/excel/业绩指标模版.xlsx
+++ b/static/excel/业绩指标模版.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whw/ken/crm/我们的crm资料/prd文档/业绩管理/模版/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulong/shuyun/pig-ui/static/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="1420" windowWidth="28800" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="员工表" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>性别</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>男</t>
@@ -198,8 +192,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,13 +222,6 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -314,7 +301,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -335,28 +322,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -639,113 +625,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-    </row>
-    <row r="2" spans="1:13" ht="19">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" ht="20" thickBot="1">
-      <c r="A3" s="11" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" ht="20">
-      <c r="A4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -760,114 +711,114 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="K3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="E4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="K5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="E5" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="E6" t="s">
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>21</v>
       </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="E9" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/static/excel/业绩指标模版.xlsx
+++ b/static/excel/业绩指标模版.xlsx
@@ -273,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -296,40 +296,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -339,12 +315,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -625,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,57 +619,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="7" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D7" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/static/excel/业绩指标模版.xlsx
+++ b/static/excel/业绩指标模版.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulong/diy_download/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulong/shuyun/pig-ui/static/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>性别</t>
   </si>
@@ -197,6 +197,13 @@
   </si>
   <si>
     <t>c1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行号</t>
+    <rPh sb="0" eb="1">
+      <t>hang hao</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -300,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -323,6 +330,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -605,23 +615,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
@@ -629,7 +639,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
@@ -637,7 +647,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -645,55 +655,61 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="C4" s="7"/>
+    <row r="4" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C5" s="9"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13">
         <v>43101</v>
       </c>
-      <c r="B8" s="14">
+      <c r="C8" s="14">
         <v>43105</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>33</v>
       </c>
     </row>

--- a/static/excel/业绩指标模版.xlsx
+++ b/static/excel/业绩指标模版.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulong/shuyun/pig-ui/static/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ypzhuang/work/projects/vue_projects/pig-ui/static/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{90434F9B-E8CE-8E4F-87D1-18C17F700A38}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="员工表" sheetId="1" r:id="rId1"/>
+    <sheet name="业绩指标" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -210,11 +211,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -325,11 +326,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -337,7 +338,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -614,14 +615,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" customWidth="1"/>
@@ -631,7 +632,7 @@
     <col min="7" max="7" width="20.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="17">
       <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
@@ -639,7 +640,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="19">
       <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
@@ -647,7 +648,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="19">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -655,19 +656,19 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="20">
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="7" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="20">
       <c r="A7" s="11" t="s">
         <v>42</v>
       </c>
@@ -690,7 +691,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="15">
         <v>1</v>
       </c>
@@ -720,21 +721,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -766,7 +767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -783,7 +784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="E4" t="s">
         <v>9</v>
       </c>
@@ -797,7 +798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="E5" t="s">
         <v>10</v>
       </c>
@@ -808,7 +809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="E6" t="s">
         <v>11</v>
       </c>
@@ -819,7 +820,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="E7" t="s">
         <v>12</v>
       </c>
@@ -827,12 +828,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="E8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="E9" t="s">
         <v>14</v>
       </c>

--- a/static/excel/业绩指标模版.xlsx
+++ b/static/excel/业绩指标模版.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ypzhuang/work/projects/vue_projects/pig-ui/static/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\阿熙\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{90434F9B-E8CE-8E4F-87D1-18C17F700A38}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C23902F-33D2-48DE-A27A-ACF1136A920F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="业绩指标" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -213,7 +213,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -308,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -326,19 +326,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -619,28 +623,28 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="20.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17">
+    <row r="1" spans="1:7" ht="17.399999999999999">
       <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:7" ht="19">
+    <row r="2" spans="1:7" ht="20.399999999999999">
       <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
@@ -648,7 +652,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="19">
+    <row r="3" spans="1:7" ht="20.399999999999999">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -656,19 +660,27 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="20">
+    <row r="4" spans="1:7" ht="20.399999999999999">
+      <c r="B4"/>
+      <c r="C4"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7">
+      <c r="B5"/>
+      <c r="C5"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="7" spans="1:7" ht="20">
+    <row r="6" spans="1:7">
+      <c r="B6"/>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.399999999999999">
       <c r="A7" s="11" t="s">
         <v>42</v>
       </c>
@@ -728,7 +740,7 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">

--- a/static/excel/业绩指标模版.xlsx
+++ b/static/excel/业绩指标模版.xlsx
@@ -1,32 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\阿熙\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C23902F-33D2-48DE-A27A-ACF1136A920F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28660" windowHeight="12460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="业绩指标" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+  <si>
+    <t>填写须知：</t>
+  </si>
+  <si>
+    <t>1、不能在该Excel表中对成员信息类别进行增加、删除或修改；</t>
+  </si>
+  <si>
+    <t>2、Excel中红色表头字段为必填字段，黑色字段为选填字段；</t>
+  </si>
+  <si>
+    <t>3、支持国内、国际手机号（国内手机号直接输入手机号即可；国际手机号必须包含加号以及国家地区码，格式示例：“+85259****24”）。</t>
+  </si>
+  <si>
+    <t>4、部门：上下级部门间用‘|’隔开，且从最上级部门开始，例如"A端事业部|智能投研部"；</t>
+  </si>
+  <si>
+    <t>行号</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>部门</t>
+  </si>
+  <si>
+    <t>职位</t>
+  </si>
+  <si>
+    <t>职级</t>
+  </si>
+  <si>
+    <t>业绩指标（万）</t>
+  </si>
+  <si>
+    <t>集团管理层|集团管理层</t>
+  </si>
+  <si>
+    <t>区域总</t>
+  </si>
+  <si>
+    <t>理财经理1</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>请勿修改</t>
+  </si>
   <si>
     <t>性别</t>
   </si>
@@ -37,33 +77,66 @@
     <t>学历</t>
   </si>
   <si>
+    <t>小学</t>
+  </si>
+  <si>
     <t>证件类型</t>
   </si>
   <si>
+    <t>身份证</t>
+  </si>
+  <si>
     <t>婚姻状况</t>
   </si>
   <si>
-    <t>职位</t>
+    <t>已婚</t>
   </si>
   <si>
     <t>女</t>
   </si>
   <si>
-    <t>小学</t>
-  </si>
-  <si>
     <t>初中</t>
   </si>
   <si>
+    <t>护照</t>
+  </si>
+  <si>
+    <t>未婚</t>
+  </si>
+  <si>
+    <t>城市总</t>
+  </si>
+  <si>
     <t>中专</t>
   </si>
   <si>
+    <t>军官证</t>
+  </si>
+  <si>
+    <t>离异</t>
+  </si>
+  <si>
+    <t>网店总</t>
+  </si>
+  <si>
     <t>高中</t>
   </si>
   <si>
+    <t>台胞证</t>
+  </si>
+  <si>
+    <t>理财师</t>
+  </si>
+  <si>
     <t>专科</t>
   </si>
   <si>
+    <t>港澳通行证</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
     <t>本科</t>
   </si>
   <si>
@@ -71,217 +144,394 @@
   </si>
   <si>
     <t>博士</t>
-  </si>
-  <si>
-    <t>请勿修改</t>
-  </si>
-  <si>
-    <t>身份证</t>
-  </si>
-  <si>
-    <t>护照</t>
-  </si>
-  <si>
-    <t>军官证</t>
-  </si>
-  <si>
-    <t>台胞证</t>
-  </si>
-  <si>
-    <t>港澳通行证</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>已婚</t>
-  </si>
-  <si>
-    <t>未婚</t>
-  </si>
-  <si>
-    <t>离异</t>
-  </si>
-  <si>
-    <t>区域总</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市总</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>网店总</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理财师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门</t>
-    <rPh sb="0" eb="2">
-      <t>bu men</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职位</t>
-    <rPh sb="0" eb="2">
-      <t>zhi wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职级</t>
-    <rPh sb="0" eb="2">
-      <t>zhi wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业绩指标（万）</t>
-    <rPh sb="0" eb="7">
-      <t>ye ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写须知：</t>
-    <rPh sb="0" eb="2">
-      <t>tian xie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、不能在该Excel表中对成员信息类别进行增加、删除或修改；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、Excel中红色字段为必填字段，黑色字段为选填字段；</t>
-    <rPh sb="0" eb="1">
-      <t>zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <rPh sb="0" eb="1">
-      <t>jie shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <rPh sb="0" eb="1">
-      <t>kai shi shi jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集团管理层|集团管理层</t>
-    <rPh sb="0" eb="1">
-      <t>ji tuan guan li ceng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域总</t>
-    <rPh sb="0" eb="1">
-      <t>qu yu z</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行号</t>
-    <rPh sb="0" eb="1">
-      <t>hang hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="DengXian"/>
-      <family val="2"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="楷体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -304,54 +554,333 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -400,7 +929,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -435,7 +964,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -609,249 +1138,318 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.9071428571429" defaultRowHeight="19" outlineLevelRow="7"/>
   <cols>
-    <col min="2" max="2" width="17.36328125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" customWidth="1"/>
-    <col min="7" max="7" width="20.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3642857142857" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.1785714285714" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.45" customWidth="1"/>
+    <col min="5" max="5" width="11.3642857142857" customWidth="1"/>
+    <col min="6" max="6" width="12.6357142857143" customWidth="1"/>
+    <col min="7" max="7" width="20.3642857142857" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999">
-      <c r="A1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="20.399999999999999">
-      <c r="A2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.399999999999999">
-      <c r="A3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.399999999999999">
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7">
+    <row r="1" ht="22" spans="1:14">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" ht="22" spans="1:14">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" ht="22" spans="1:14">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" ht="22" spans="1:14">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" ht="22" spans="1:14">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="2:3">
       <c r="B6"/>
       <c r="C6"/>
     </row>
-    <row r="7" spans="1:7" ht="20.399999999999999">
-      <c r="A7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>32</v>
+    <row r="7" ht="24" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="15">
+      <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="8">
         <v>43101</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="9">
         <v>43105</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>33</v>
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A5:N5"/>
+  </mergeCells>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D5">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E5">
+      <formula1>"潜客,客户"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H5">
+      <formula1>"理财师端入录,管理端入录,投资端入录"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I5">
+      <formula1>"中国,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J5">
+      <formula1>"大陆,港澳台,境外"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L5">
+      <formula1>"已实名认证,未实名认证,实名认证已过期"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.9071428571429" defaultRowHeight="19"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="5:11">
       <c r="E4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="5:11">
       <c r="E5" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="5:11">
       <c r="E6" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7">
       <c r="E7" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
       <c r="E8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
       <c r="E9" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>